--- a/excel_templates/记录表.xlsx
+++ b/excel_templates/记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7246,6 +7246,122 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2ec2586b-ad04-460a-9c36-1ac871361d6f</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2026-02-07 22:43:26</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>借用续期：2026-02-13 → 2026-02-28</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2cac909b-9bbd-42a1-b7d3-871b9b11e3a9</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2026-02-07 22:46:08</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>借用续期：2026-02-28 → 2026-02-28</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/记录表.xlsx
+++ b/excel_templates/记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7362,6 +7362,1110 @@
       </c>
       <c r="L123" t="inlineStr"/>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>48d99bec-52bb-49fc-b8ce-f814f96ebe4f</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:35:50</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>用于功能测试</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>65c18361-27ba-4acb-9f96-ccc3aab1f9da</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:37:24</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>正常归还</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>设备完好，无异常</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>55ef7eba-e48a-4386-97b8-77eea859ace4</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:37:44</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>借用续期：2026-02-03 → 2026-02-09</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0a997df2-a4c7-4fb9-a5cc-96eafb764c74</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>148faa59-7f7e-4219-9054-1f89877683d6</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:38:02</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>正常归还</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>设备完好，无异常</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>eb12deaf-29d6-4d2f-9528-8a9fea3e43a9</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PHO002</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>手机-002</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39:25</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>演示</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>用于产品演示</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>5f5204ad-0c42-4a93-a668-58d1c2922fc5</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>PHO002</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>手机-002</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39:42</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>转借：lan——&gt;summer</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>13800138002.0</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>18084090-8785-490c-a61b-f1129c000ade</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>车机-002</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39:57</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>找回：lan——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>设备已找到</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>43b1c264-db46-4dff-b446-62db9e7c6b16</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>车机-002</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>损坏报备</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:40:14</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>损坏原因：被我一拳打爆了</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>807b4607-993f-4b3f-9001-d1c972fd931f</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>车机-TRANS-001</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>借用人未找到</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:53:38</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>借用人未找到设备，设备转为丢失状态</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>87902a52-54a9-4da8-bb62-8034b4dc645b</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>summer2</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:30:21</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>summer2</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>15827247200.0</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>用于功能测试</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0143a5c0-a959-4b0a-9a2c-a7f78a7f01b9</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>summer2</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:31:12</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>转借：summer2——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2ba309f7-ed12-489b-9a9a-4ac727169bf5</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>summer2</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:31:32</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>被转借：lan——&gt;summer2</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>15827247200.0</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>用户转借给自己</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>21d47100-16a9-4bfb-a92d-11d2e1d55862</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>summer2</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:37:31</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>未找到退回：summer2——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>设备未找到，退回给上一个借用人</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>149f02de-490e-4041-b0e9-84bcb62e8d87</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:43:08</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>未找到退回：test——&gt;summer</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>13800138002.0</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>设备未找到，退回给上一个借用人</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>d337352e-1eb0-40e5-bdc4-4632f173f177</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:46:24</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>被转借：summer——&gt;test</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>用户转借给自己</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>cb7cd421-6f6b-45c7-a9b7-b394a37bd836</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:00:00</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>正常归还</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>设备完好，无异常</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>30543115-4c87-40a0-b6b9-d906c70206d4</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>强制借出</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>13986903203</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:08:24</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>管理员录入</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>e4374484-2aad-429d-8444-e47acd487972</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:33:59</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>转借：lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>4a5d3c57-4eac-4037-ad0f-dc0b44f03270</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2026-02-09 11:34:52</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>转借：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/记录表.xlsx
+++ b/excel_templates/记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8466,6 +8466,242 @@
       </c>
       <c r="L142" t="inlineStr"/>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>3a6092d0-4abb-48ba-9c3b-f46f879b301c</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:29:29</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>设备已找回</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>e2078ace-4b40-446a-ba00-89be84e35dbb</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>丢失报备</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:30:27</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>用户报备丢失</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>723d527b-dba6-47bf-bc2e-23ceebce84ef</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:30:34</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>设备已找回</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ea6162d2-e5f8-4a72-8c44-9c698a8f83c1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>损坏报备</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:32:41</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>电池损坏，屏幕破裂</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/记录表.xlsx
+++ b/excel_templates/记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8702,6 +8702,61 @@
       </c>
       <c r="L146" t="inlineStr"/>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>6b464030-ee92-413e-9928-3b2cdc60def9</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-3</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>修复</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:50:47</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>修复并归还：test</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>设备已修复并归还</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/记录表.xlsx
+++ b/excel_templates/记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8757,6 +8757,7473 @@
       </c>
       <c r="L147" t="inlineStr"/>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>adc9ffe8-19a5-4249-99fa-5f7b7c4ba020</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:07:09</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>d9a4f266-dbc9-4261-8cb7-a1f21768b228</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:10:40</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>40ca4d64-d00d-4b9a-b2dd-4f2aa54def1d</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>YPS- 
+CBTHD-JSJJ01</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:10:57</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>a527e71b-427d-4457-8b55-a16a3abd66dc</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:18:09</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0310cfce-45d6-445a-8abd-6a5db36602d9</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>AE- 
+ZXCL04-3</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:19:23</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>0e1d0371-1eb0-49ce-9793-76eabf93a93e</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>AE- 
+SHHS02-1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:20:09</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>01e89136-0b36-48e1-a8c6-972dec1b9c70</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:29:37</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>b9f9f42e-c468-45d5-ad23-c1155eab9bf9</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:30:01</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>演示 - 用于产品演示</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>104e1a97-b338-4efe-9234-1070bf6320e9</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:34:56</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>a74b9685-fe04-46c6-a901-915a7f9c0679</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:35:09</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>cb6b91e0-26a6-4040-ad18-8c8244a69b97</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:36:01</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>86c091da-2636-4f70-a0f5-eb5867d383f3</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:41:11</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>6b40e8b9-60d4-4aae-b5df-e11bca93f2f1</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:42:22</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>续借 1 天</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1c18aa42-9ac5-4bc7-ad02-2d68fb270343</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>AE- 
+SGW08-2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>丢失报备</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:44:32</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>未找到：lan</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>设备未找到，标记为丢失</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>401d8a01-dffa-448a-80a3-e3cfc24162bc</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52:05</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>用户转借: lan 转给 test</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>3910279d-cc1c-425b-8ab9-7568dccc65a3</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52:22</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>转给自己：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>设备找回后转给自己保管</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>af81f2bc-0339-492e-968d-e4c383adf1a1</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:52:54</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>lan——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>用户转借: lan 转给 lan</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>4c153c17-7257-4bd7-a942-9f0416880e78</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:53:20</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>用户转借: lan 转给 test</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>899ae14f-148e-40f8-aa24-9fc9cd797278</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:54:45</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>转给自己：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>设备找回后转给自己保管</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>7e43852c-c94a-493c-ab22-e01832d34e7d</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:55:14</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>未找到退回：lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>设备未找到，退回给上一个借用人</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>eb2bd2c2-836a-4acb-b258-8069155fa71a</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:55:23</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>转给自己：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>设备找回后转给自己保管</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>b5be9afc-b31a-4e64-81ab-4225ef21fb54</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:06:58</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>续借 1 天</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>fc70141f-74aa-4b72-bb4c-8a1108ea9cd7</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:07:24</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>续借 1 天</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>cde170f6-e82d-4702-bf8e-315c8b6b358e</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:17:55</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>续借 1 天</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>8e1fc927-6f54-47d0-8561-037789247594</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:19:31</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>用户转借: lan 转给 test</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>fc0ba3df-7014-474e-9c97-3da924469b5e</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:20:20</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>转给自己：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>设备找回后转给自己保管</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>04aa2113-49ea-45c7-aaa4-0a9006f74c6e</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:22:43</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>用户转借: lan 转给 test</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>08a9b857-ea59-4bb1-9ca0-23ce5b479c0b</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:22:56</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>被转借：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>设备转借给自己</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>9a621664-7308-40ec-b0c7-bf775ab46e66</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:25:03</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>用户转借: lan 转给 test</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>cf6f5f91-e314-4062-88cd-265bb3c2e73f</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:25:19</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>被转借：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>设备转借给自己</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>19d5d2f2-1359-470b-88b6-0ad7a711366a</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:26:20</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>未找到退回：lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>设备未找到，退回给上一个借用人</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>d96af111-64c6-4b55-913b-d63cd629c535</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:27:16</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>被转借：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>用户转借给自己</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>4f3635dc-a467-40f3-897a-6cecf0dfab20</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:28:47</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>ggggggg</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>c3d4cf9c-b2c0-445c-8a6c-2c87827ee904</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:30:33</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>被转借：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>用户转借给自己</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>721f3ea8-563a-4e91-b268-0f8c203d0b9b</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:30:42</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>续借 1 天</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>0b07da86-958b-4a03-97d2-69bc48907bbc</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>丢失报备</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31:14</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>用户报备丢失</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>3e11fe52-c0d2-422c-a7eb-436248fbe057</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31:21</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>设备已找回</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>53dff1df-be13-439d-9369-75154dcb943a</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>损坏报备</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31:29</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1978a52c-3411-483f-af94-cfbe9282768a</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>修复</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31:36</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>修复：lan——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>设备已修复</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>f3323da2-91d9-4af5-945e-79e4317fce4d</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:31:53</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>4813fe77-954a-419d-8321-05d740d1814b</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32:06</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>a9fcb434-d53c-4d8d-9704-6f28ae7384e9</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32:18</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>7e397fd3-8799-4ecf-a626-f6eca6bd4d59</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:32:32</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>babd50e8-2b45-48aa-a02f-33f37913ef8c</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>借用人未找到</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:38:41</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>未找到：lan——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>设备未找到，退回给上一个借用人</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>c99ca029-04bf-4653-9f26-f78940b12d28</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>借用人未找到</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:39:44</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>未找到：lan</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>设备未找到，标记为丢失，不在任何人名下</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>4e5c5c44-969b-46e4-a624-c1d2ed079548</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:40:28</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>设备已找回</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>aa4fb09e-5a30-41d1-a89b-0b1c89097322</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41:07</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>被转借：——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>用户转借给自己</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>29ff15d3-4aff-42fb-b7b3-330fb6f58213</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>借用人未找到</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41:14</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>未找到：lan</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>设备未找到，标记为丢失，不在任何人名下</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>68b7b36d-1cf8-4c57-b73d-54c6d8b58649</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:41:21</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>设备已找回</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ab46e49e-3486-426f-a384-a6d619e9a9fa</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:43:29</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>被转借：——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>用户转借给自己</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>b4b47583-9508-4ed5-86f5-84240de65e3c</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>借用人未找到</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:43:37</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>未找到：库中未找到</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>设备未找到，标记为丢失，不在任何人名下</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>0749903f-d90f-4acd-98d7-d9175536d77b</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:44:02</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>找回：丢失状态——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>设备已找回</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>62a03418-2d17-4919-beb2-3cc3628158b6</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:44:27</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>b5e3116b-9e96-4861-9681-f01235fe31dd</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:45:40</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>被转借：test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>用户转借给自己</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>e65476ad-92de-4e88-8dfe-5c84e39da1e6</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:45:58</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>fe44dc90-02ac-4318-9bb8-d551a9a39c01</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:46:12</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>其他 - 123123</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>828874d7-2475-49ba-ac2d-e4935957d6e6</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:47:14</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>5e5fb9bc-dc76-4f53-b4db-77c3cd66996e</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:47:28</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>9969d009-a17a-45fe-95a5-cac558368f4e</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:59:29</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>找回：lan——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>设备已找回</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>3843001d-26ca-4ce8-93df-b09a9532a7b8</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:59:37</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>08c32d90-fd56-489d-9885-eb9891938ceb</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:19:49</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2efc0d76-df30-48b5-bba5-2bf44891c3e8</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>借用人未找到</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:19:58</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>未找到：库中未找到</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>设备未找到，标记为丢失，不在任何人名下</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>6eceeb25-9645-43f5-9e63-24a343363b70</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>148faa59-7f7e-4219-9054-1f89877683d6</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20:09</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>e60ee89d-b770-46f6-b3ba-5505c6f90ce4</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>148faa59-7f7e-4219-9054-1f89877683d6</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>损坏报备</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20:25</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>559be0d7-debe-4223-8a9e-c6ec644ab909</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TEG-245</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20:45</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>23c0ef3e-ef46-4286-8914-06b8f27b9c8b</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TEG-245</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>丢失报备</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:20:53</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>用户报备丢失</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1005ffa1-89b4-462c-8a1c-bd318cd40f8c</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TEG-244</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:21:46</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>a77079b1-9735-4627-93b3-1832f8a25c3c</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TEG-244</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:28:11</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>保管人代还：test</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>保管人代还设备</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>10bce3df-823a-4450-bbd7-7aa3d77b826a</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TEG-244</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:28:24</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>保管人——&gt;test</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>512a7006-e812-4818-bfa6-5a0ffe3d72b2</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TEG-244</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:29:13</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>保管人代还：test</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>保管人代还设备</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ddf13769-7683-4712-af3c-aed3a412753a</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>TEG-244</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>损坏报备</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:29:22</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>d929a142-b604-45e5-a51e-93db10c990b3</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>TEG-244</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>修复</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:33:39</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>修复自用：损坏——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>设备已修复自用</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>3cfcc5b7-5678-4213-9514-a19f6a58246f</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>TEG-243</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>保管人变更</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:34:11</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>转让保管人：lan——&gt;good</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>13800138002.0</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>设备转让保管人</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>4bd3a301-a45a-487a-b90c-aeed10d5313b</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>TEG-243</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:34:44</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>70088cb7-2b0d-487d-a613-d6981296a82d</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>TEG-244</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>小米 Pad 8 11.2英寸</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:35:12</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>保管人代还：lan</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>保管人代还设备</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>8a8fbc68-9a7d-4ce8-9679-f3216e68c1d1</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TEG-245</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:35:20</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>找回：lan——&gt;保管人自用</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>设备已找回，保管人自用</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>8040fff4-2765-4f13-93b9-edffcf18874f</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>TEG-245</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36:26</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>保管人——&gt;test</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2f04e0ee-68a5-4579-a135-01319226d11e</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>TEG-245</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>iPad mini6（2021）</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36:39</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>保管人代还：test</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>保管人代还设备</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>c9e82a5c-273f-4a0f-a918-18609eafe186</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>148faa59-7f7e-4219-9054-1f89877683d6</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>手机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>修复</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:36:46</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>修复：lan——&gt;保管人自用</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>设备已修复，保管人自用</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>7cc99091-c038-49b1-a15f-4eded68e8c61</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>找回</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:39:33</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>找回转借：丢失——&gt;test</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>设备找回后转借</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>a7e4aba9-10e2-4227-833c-1f29fdaa7653</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TEG-243</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:44:30</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>a53d0455-c51b-435a-badd-d4de1c990e9d</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>TEG-238</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>机械臂（大象机器人）</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>保管人变更</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:56:46</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>转让保管人：lan——&gt;summer</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>15827247200.0</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>设备转让保管人</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ec646383-36ad-488b-90b6-324fc18feb0f</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:58:59</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>test——&gt;summer</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>15827247200.0</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>b3b67eeb-97b0-4f03-a1dd-0af9219515e0</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>cea5f628-8066-466c-8c8b-dc0d66e106f0</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>手机-LOST-001</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:01:08</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>summer——&gt;test</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>保管人转借</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>7b92ff25-fa4a-4b59-a472-777acf27b703</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>TEG-220</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>红米K60 PRO</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:04:27</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>308aa285-7770-45ad-8734-ae2a0e4d136b</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>TEG-220</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>红米K60 PRO</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:05:01</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>439e89fc-5e57-4177-b881-dc8af4ab5013</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:21:47</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>的顶顶顶顶顶</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>c5092d03-1ef7-4f09-8fa5-36281086941a</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:23:44</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>未寄出（还原）</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>7fe68902-83fc-4e33-9bd3-69fba3cd2828</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:23:53</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>bf43e996-1f5f-483b-bc17-6ad9d8a2994c</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:24:02</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>5545454</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>5b1daf69-d6c2-495c-96a4-b2874290f7eb</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25:27</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>未寄出（还原）</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ab2f2e74-cbb6-451e-85f7-2db9b09a57f0</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25:33</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1116baa9-837c-495d-bb6f-9d843726b2ea</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25:43</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>发发发</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>89138514-6965-4642-97c4-debaea912d75</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25:52</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>未寄出（还原）</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>c299c96e-bcc9-4436-b09e-4cb4f842097e</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:26:41</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>3865a8b1-b5ad-4832-be9c-fb3dcfd82806</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:33:27</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>dfsdfa</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>21f5d2ad-4efb-418e-bcb5-a80f99c69768</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35:26</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>未寄出（还原）</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>f50319fb-1d33-4549-9708-2b0ecbedefeb</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35:32</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>96da3cac-0219-42e2-b5ab-2dd22f808b92</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35:40</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>dafad</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>69a2eab0-fd7e-475c-9c13-94bfc8063175</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36:44</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>未寄出（还原）</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>feee0334-95e2-4b30-8e64-16b5ff54a4f8</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36:50</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>e669f445-4a04-4a34-b4c8-c9c7324a62fd</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:37:00</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>adfadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>cd4f5c80-ce73-42ed-b373-e3de04ed2286</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:37:40</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>未寄出（还原）</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>7569d312-6b68-452d-b773-8006a0036a37</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:40:22</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>dfadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>b99149c2-07e9-41e7-a484-836f57b33922</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:40:37</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>未寄出（还原）</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>3609fb85-00ea-4bb0-9b58-729c5db548dd</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>TEG-237</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:54:22</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>b4f07ee7-a51b-4981-b438-f622239ef5af</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TEG-237</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:54:34</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>0993896e-fdb1-4531-8779-8df9f402d169</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>TEG-238</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>机械臂（大象机器人）</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:25:17</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>36873bca-0311-4550-b6fc-22447cbcbe5f</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>TEG-237</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:27:40</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>6e532ebf-1802-4b11-96ca-eed5a1be9144</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>TEG-243</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>联想平板-邵阳K12（HA27VAW9）</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41:53</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>21c54ca5-1327-47ac-821e-0a9746a5d195</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>qwqe1</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54:12</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>82a7e6b4-ff5a-43b7-83f9-aecc1702f434</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ybb01</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>联通测试卡：18696137226</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>手机卡</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:54:54</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>50dce3c2-eaf2-49d8-a71e-af22e7306922</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>qt01</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>保时捷</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>其它设备</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:55:11</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>e7c35696-d9e7-4fc1-951b-c4985b40d7d5</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>qwqe1</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56:11</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>续借 1 天</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>99935d0e-a3fd-4b86-b940-47ce5680a753</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>qwqe1</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>仪表-001</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>借用人未找到</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56:23</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>未找到：库中未找到</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>设备未找到，标记为丢失，不在任何人名下</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>d5a8a9fe-a42d-4f3c-94b8-220af397921f</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>qwqe2</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56:40</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>09b6929d-a9c7-49f4-8abc-c4e0c76dc785</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>qwqe2</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:56:50</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>test——&gt;lan</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>e365cf63-b667-4569-a1ac-7bc8a260f5a5</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>ybb02</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>测试卡17320507707</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>手机卡</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:57:16</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>abbcde86-752f-4169-845a-494a21ffcdab</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>TEG-237</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>iPad mini（2024）</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:01:12</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ac0224a2-edc5-482a-8b16-666df91bc27e</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>LE- 
+XFZN01-2</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:43:09</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>84882781-33fa-4682-b79b-84b0091ff131</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>AE- 
+QRQC03-1</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>寄出</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:46:38</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>已寄出</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>cc05b41b-e2f5-493b-8250-fb2a88df8888</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>归还</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:00:57</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>64c36ff5-9687-4f16-944d-648e7365e9d5</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>转借</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:01:10</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>lan——&gt;test</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>用户转借</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>82274395-cce5-4224-a376-f59a2981b80e</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>PHO003</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:19:36</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>续借 1 天</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>7483bacd-991d-411b-b461-b5881b4ca24f</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>PHO003</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>借用续期</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:21:29</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>续借 1 天</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2335fdf5-9a8c-4544-8930-75a6f3dac755</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>qwqe3</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>仪表-003</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47:26</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2addb2d5-0738-4bb6-a5dd-126a9f2d89bd</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>qwqe4</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>仪表-004</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:47:54</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>bd9264a0-8e4a-4862-8540-edac7803fac6</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>qt02</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>兰博基尼</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>其它设备</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:48:31</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>6fb7d66a-6ac1-48fd-b095-d5c235e3cf92</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>TEG-199</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>iPhone 14 Pro</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:49:14</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/记录表.xlsx
+++ b/excel_templates/记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L276"/>
+  <dimension ref="A1:L291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16224,6 +16224,747 @@
       </c>
       <c r="L276" t="inlineStr"/>
     </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>3d26be9f-39bb-4967-9249-f7f5427fbeb6</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>车机-OVERDUE-001</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:18:28</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>60959a56-388a-43d6-a436-4b5fd0a94ec3</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:33:28</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>fee74438-c749-4331-888c-e4ffb76a7efe</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>车机-001</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:00:28</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>431a8877-58f1-4b5e-88a4-0f61e8b5b702</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>RTOS- 
+SSDQ21-1</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:00:59</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>5d5d3704-99ef-44b1-8bb5-18ff8fc91a2c</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>AE- 
+ZXCL04-3</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:05:48</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>67cadbca-c299-44fe-b911-9473c5c3cb24</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>qwqe2</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>仪表-002</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:21:40</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>f816c515-7100-411d-93db-61ac0ef32b48</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>AE- 
+SHHS02-1</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:26:15</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>89332748-2cfc-4b13-b937-c4766ce58055</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>PHO003</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>手机-003</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:39:10</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>536b0be5-2f1a-44e5-8577-8905cbdb2849</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>qwqe3</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>仪表-003</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:53:53</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>c62fa0e5-730c-4600-bcd3-1f74b62d207c</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>qwqe23</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>仪表-023</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:47:06</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>7678ad32-f3f7-499d-9061-5a9c344a951f</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>qwqe23</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>仪表-023</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52:28</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>09eaabf6-4cf1-4703-81e4-13e5da426d15</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>qwqe5</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>仪表-005</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>仪表</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52:38</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>8cb7ead5-4267-4aa1-8c77-c5712337f836</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>qt02</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>兰博基尼</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>其它设备</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52:46</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>37476dc5-5af5-46f0-adf4-66f0309756ff</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>qt01</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>保时捷</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>其它设备</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>强制归还</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:52:50</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>管理员强制归还</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>38da49de-68d0-45ab-9cec-0abf358079b2</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>LE- XFZN01-2</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>状态变更</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:14:03</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>管理员将状态从已寄出改成了在库</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_templates/记录表.xlsx
+++ b/excel_templates/记录表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L291"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16965,6 +16965,65 @@
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>8a0ca5d5-fe52-4a8a-a4c2-9314b2fb8ade</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>20a7b8fd-d41d-4a97-9617-93c7dbbdcc04</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>LE- 
+XFZN01-2</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>车机</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>借出</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:44:11</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
